--- a/natmiOut/OldD7/LR-pairs_lrc2p/Il17c-Il17ra.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Il17c-Il17ra.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,13 +85,13 @@
     <t>M2</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Il17c</t>
   </si>
   <si>
     <t>Il17ra</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.368369648669556</v>
+        <v>0.8163016666666666</v>
       </c>
       <c r="H2">
-        <v>0.368369648669556</v>
+        <v>2.448905</v>
       </c>
       <c r="I2">
-        <v>0.1469396663605372</v>
+        <v>0.2413881986261334</v>
       </c>
       <c r="J2">
-        <v>0.1469396663605372</v>
+        <v>0.2413881986261334</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.9804701287956999</v>
+        <v>1.331285</v>
       </c>
       <c r="N2">
-        <v>0.9804701287956999</v>
+        <v>3.993855</v>
       </c>
       <c r="O2">
-        <v>0.04106508841591384</v>
+        <v>0.0499894697877283</v>
       </c>
       <c r="P2">
-        <v>0.04106508841591384</v>
+        <v>0.04998946978772829</v>
       </c>
       <c r="Q2">
-        <v>0.3611754368754663</v>
+        <v>1.086730164308333</v>
       </c>
       <c r="R2">
-        <v>0.3611754368754663</v>
+        <v>9.780571478775</v>
       </c>
       <c r="S2">
-        <v>0.00603409039090034</v>
+        <v>0.01206686806233525</v>
       </c>
       <c r="T2">
-        <v>0.00603409039090034</v>
+        <v>0.01206686806233525</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.368369648669556</v>
+        <v>0.8163016666666666</v>
       </c>
       <c r="H3">
-        <v>0.368369648669556</v>
+        <v>2.448905</v>
       </c>
       <c r="I3">
-        <v>0.1469396663605372</v>
+        <v>0.2413881986261334</v>
       </c>
       <c r="J3">
-        <v>0.1469396663605372</v>
+        <v>0.2413881986261334</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>10.3683902044728</v>
+        <v>10.37764133333333</v>
       </c>
       <c r="N3">
-        <v>10.3683902044728</v>
+        <v>31.132924</v>
       </c>
       <c r="O3">
-        <v>0.434259900401402</v>
+        <v>0.3896782341125657</v>
       </c>
       <c r="P3">
-        <v>0.434259900401402</v>
+        <v>0.3896782341125657</v>
       </c>
       <c r="Q3">
-        <v>3.819400256890511</v>
+        <v>8.471285916468888</v>
       </c>
       <c r="R3">
-        <v>3.819400256890511</v>
+        <v>76.24157324821999</v>
       </c>
       <c r="S3">
-        <v>0.06381000487874211</v>
+        <v>0.09406372697624493</v>
       </c>
       <c r="T3">
-        <v>0.06381000487874211</v>
+        <v>0.09406372697624495</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.368369648669556</v>
+        <v>0.8163016666666666</v>
       </c>
       <c r="H4">
-        <v>0.368369648669556</v>
+        <v>2.448905</v>
       </c>
       <c r="I4">
-        <v>0.1469396663605372</v>
+        <v>0.2413881986261334</v>
       </c>
       <c r="J4">
-        <v>0.1469396663605372</v>
+        <v>0.2413881986261334</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>10.5612201130843</v>
+        <v>12.55252066666667</v>
       </c>
       <c r="N4">
-        <v>10.5612201130843</v>
+        <v>37.657562</v>
       </c>
       <c r="O4">
-        <v>0.4423362068729619</v>
+        <v>0.4713444924461467</v>
       </c>
       <c r="P4">
-        <v>0.4423362068729619</v>
+        <v>0.4713444924461467</v>
       </c>
       <c r="Q4">
-        <v>3.890432942578712</v>
+        <v>10.24664354106778</v>
       </c>
       <c r="R4">
-        <v>3.890432942578712</v>
+        <v>92.21979186960999</v>
       </c>
       <c r="S4">
-        <v>0.06499673465709857</v>
+        <v>0.1137769979639245</v>
       </c>
       <c r="T4">
-        <v>0.06499673465709857</v>
+        <v>0.1137769979639245</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.368369648669556</v>
+        <v>0.8163016666666666</v>
       </c>
       <c r="H5">
-        <v>0.368369648669556</v>
+        <v>2.448905</v>
       </c>
       <c r="I5">
-        <v>0.1469396663605372</v>
+        <v>0.2413881986261334</v>
       </c>
       <c r="J5">
-        <v>0.1469396663605372</v>
+        <v>0.2413881986261334</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.96592144764875</v>
+        <v>2.369861666666667</v>
       </c>
       <c r="N5">
-        <v>1.96592144764875</v>
+        <v>7.109585</v>
       </c>
       <c r="O5">
-        <v>0.08233880430972219</v>
+        <v>0.08898780365355935</v>
       </c>
       <c r="P5">
-        <v>0.08233880430972219</v>
+        <v>0.08898780365355935</v>
       </c>
       <c r="Q5">
-        <v>0.724185792982315</v>
+        <v>1.934522028269444</v>
       </c>
       <c r="R5">
-        <v>0.724185792982315</v>
+        <v>17.410698254425</v>
       </c>
       <c r="S5">
-        <v>0.01209883643379614</v>
+        <v>0.02148060562362874</v>
       </c>
       <c r="T5">
-        <v>0.01209883643379614</v>
+        <v>0.02148060562362875</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.07523222242629</v>
+        <v>1.210478333333333</v>
       </c>
       <c r="H6">
-        <v>1.07523222242629</v>
+        <v>3.631435</v>
       </c>
       <c r="I6">
-        <v>0.4289014162650134</v>
+        <v>0.3579500034006598</v>
       </c>
       <c r="J6">
-        <v>0.4289014162650134</v>
+        <v>0.3579500034006599</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.9804701287956999</v>
+        <v>1.331285</v>
       </c>
       <c r="N6">
-        <v>0.9804701287956999</v>
+        <v>3.993855</v>
       </c>
       <c r="O6">
-        <v>0.04106508841591384</v>
+        <v>0.0499894697877283</v>
       </c>
       <c r="P6">
-        <v>0.04106508841591384</v>
+        <v>0.04998946978772829</v>
       </c>
       <c r="Q6">
-        <v>1.054233075607591</v>
+        <v>1.611491647991667</v>
       </c>
       <c r="R6">
-        <v>1.054233075607591</v>
+        <v>14.503424831925</v>
       </c>
       <c r="S6">
-        <v>0.01761287458063344</v>
+        <v>0.01789373088051453</v>
       </c>
       <c r="T6">
-        <v>0.01761287458063344</v>
+        <v>0.01789373088051453</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +832,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.07523222242629</v>
+        <v>1.210478333333333</v>
       </c>
       <c r="H7">
-        <v>1.07523222242629</v>
+        <v>3.631435</v>
       </c>
       <c r="I7">
-        <v>0.4289014162650134</v>
+        <v>0.3579500034006598</v>
       </c>
       <c r="J7">
-        <v>0.4289014162650134</v>
+        <v>0.3579500034006599</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>10.3683902044728</v>
+        <v>10.37764133333333</v>
       </c>
       <c r="N7">
-        <v>10.3683902044728</v>
+        <v>31.132924</v>
       </c>
       <c r="O7">
-        <v>0.434259900401402</v>
+        <v>0.3896782341125657</v>
       </c>
       <c r="P7">
-        <v>0.434259900401402</v>
+        <v>0.3896782341125657</v>
       </c>
       <c r="Q7">
-        <v>11.14842724253826</v>
+        <v>12.56190998510444</v>
       </c>
       <c r="R7">
-        <v>11.14842724253826</v>
+        <v>113.05718986594</v>
       </c>
       <c r="S7">
-        <v>0.186254686309265</v>
+        <v>0.139485325225756</v>
       </c>
       <c r="T7">
-        <v>0.186254686309265</v>
+        <v>0.139485325225756</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +894,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.07523222242629</v>
+        <v>1.210478333333333</v>
       </c>
       <c r="H8">
-        <v>1.07523222242629</v>
+        <v>3.631435</v>
       </c>
       <c r="I8">
-        <v>0.4289014162650134</v>
+        <v>0.3579500034006598</v>
       </c>
       <c r="J8">
-        <v>0.4289014162650134</v>
+        <v>0.3579500034006599</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>10.5612201130843</v>
+        <v>12.55252066666667</v>
       </c>
       <c r="N8">
-        <v>10.5612201130843</v>
+        <v>37.657562</v>
       </c>
       <c r="O8">
-        <v>0.4423362068729619</v>
+        <v>0.4713444924461467</v>
       </c>
       <c r="P8">
-        <v>0.4423362068729619</v>
+        <v>0.4713444924461467</v>
       </c>
       <c r="Q8">
-        <v>11.35576417372487</v>
+        <v>15.19455429571889</v>
       </c>
       <c r="R8">
-        <v>11.35576417372487</v>
+        <v>136.75098866147</v>
       </c>
       <c r="S8">
-        <v>0.1897186255931073</v>
+        <v>0.1687177626739805</v>
       </c>
       <c r="T8">
-        <v>0.1897186255931073</v>
+        <v>0.1687177626739805</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +956,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.07523222242629</v>
+        <v>1.210478333333333</v>
       </c>
       <c r="H9">
-        <v>1.07523222242629</v>
+        <v>3.631435</v>
       </c>
       <c r="I9">
-        <v>0.4289014162650134</v>
+        <v>0.3579500034006598</v>
       </c>
       <c r="J9">
-        <v>0.4289014162650134</v>
+        <v>0.3579500034006599</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.96592144764875</v>
+        <v>2.369861666666667</v>
       </c>
       <c r="N9">
-        <v>1.96592144764875</v>
+        <v>7.109585</v>
       </c>
       <c r="O9">
-        <v>0.08233880430972219</v>
+        <v>0.08898780365355935</v>
       </c>
       <c r="P9">
-        <v>0.08233880430972219</v>
+        <v>0.08898780365355935</v>
       </c>
       <c r="Q9">
-        <v>2.113822087270875</v>
+        <v>2.868666200497222</v>
       </c>
       <c r="R9">
-        <v>2.113822087270875</v>
+        <v>25.817995804475</v>
       </c>
       <c r="S9">
-        <v>0.03531522978200764</v>
+        <v>0.03185318462040881</v>
       </c>
       <c r="T9">
-        <v>0.03531522978200764</v>
+        <v>0.03185318462040882</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,61 +1018,61 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.06334303897159</v>
+        <v>1.210812666666667</v>
       </c>
       <c r="H10">
-        <v>1.06334303897159</v>
+        <v>3.632438</v>
       </c>
       <c r="I10">
-        <v>0.4241589173744493</v>
+        <v>0.3580488689602556</v>
       </c>
       <c r="J10">
-        <v>0.4241589173744493</v>
+        <v>0.3580488689602557</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.9804701287956999</v>
+        <v>1.331285</v>
       </c>
       <c r="N10">
-        <v>0.9804701287956999</v>
+        <v>3.993855</v>
       </c>
       <c r="O10">
-        <v>0.04106508841591384</v>
+        <v>0.0499894697877283</v>
       </c>
       <c r="P10">
-        <v>0.04106508841591384</v>
+        <v>0.04998946978772829</v>
       </c>
       <c r="Q10">
-        <v>1.042576086374486</v>
+        <v>1.611936740943334</v>
       </c>
       <c r="R10">
-        <v>1.042576086374486</v>
+        <v>14.50743066849</v>
       </c>
       <c r="S10">
-        <v>0.01741812344438005</v>
+        <v>0.01789867311741899</v>
       </c>
       <c r="T10">
-        <v>0.01741812344438005</v>
+        <v>0.01789867311741899</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,61 +1080,61 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.06334303897159</v>
+        <v>1.210812666666667</v>
       </c>
       <c r="H11">
-        <v>1.06334303897159</v>
+        <v>3.632438</v>
       </c>
       <c r="I11">
-        <v>0.4241589173744493</v>
+        <v>0.3580488689602556</v>
       </c>
       <c r="J11">
-        <v>0.4241589173744493</v>
+        <v>0.3580488689602557</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>10.3683902044728</v>
+        <v>10.37764133333333</v>
       </c>
       <c r="N11">
-        <v>10.3683902044728</v>
+        <v>31.132924</v>
       </c>
       <c r="O11">
-        <v>0.434259900401402</v>
+        <v>0.3896782341125657</v>
       </c>
       <c r="P11">
-        <v>0.434259900401402</v>
+        <v>0.3896782341125657</v>
       </c>
       <c r="Q11">
-        <v>11.02515554926737</v>
+        <v>12.56537957652356</v>
       </c>
       <c r="R11">
-        <v>11.02515554926737</v>
+        <v>113.088416188712</v>
       </c>
       <c r="S11">
-        <v>0.1841952092133949</v>
+        <v>0.1395238509824339</v>
       </c>
       <c r="T11">
-        <v>0.1841952092133949</v>
+        <v>0.1395238509824339</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,61 +1142,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.06334303897159</v>
+        <v>1.210812666666667</v>
       </c>
       <c r="H12">
-        <v>1.06334303897159</v>
+        <v>3.632438</v>
       </c>
       <c r="I12">
-        <v>0.4241589173744493</v>
+        <v>0.3580488689602556</v>
       </c>
       <c r="J12">
-        <v>0.4241589173744493</v>
+        <v>0.3580488689602557</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>10.5612201130843</v>
+        <v>12.55252066666667</v>
       </c>
       <c r="N12">
-        <v>10.5612201130843</v>
+        <v>37.657562</v>
       </c>
       <c r="O12">
-        <v>0.4423362068729619</v>
+        <v>0.4713444924461467</v>
       </c>
       <c r="P12">
-        <v>0.4423362068729619</v>
+        <v>0.4713444924461467</v>
       </c>
       <c r="Q12">
-        <v>11.23019989029494</v>
+        <v>15.19875102179511</v>
       </c>
       <c r="R12">
-        <v>11.23019989029494</v>
+        <v>136.788759196156</v>
       </c>
       <c r="S12">
-        <v>0.187620846622756</v>
+        <v>0.1687643624109886</v>
       </c>
       <c r="T12">
-        <v>0.187620846622756</v>
+        <v>0.1687643624109886</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,61 +1204,309 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1.210812666666667</v>
+      </c>
+      <c r="H13">
+        <v>3.632438</v>
+      </c>
+      <c r="I13">
+        <v>0.3580488689602556</v>
+      </c>
+      <c r="J13">
+        <v>0.3580488689602557</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>2.369861666666667</v>
+      </c>
+      <c r="N13">
+        <v>7.109585</v>
+      </c>
+      <c r="O13">
+        <v>0.08898780365355935</v>
+      </c>
+      <c r="P13">
+        <v>0.08898780365355935</v>
+      </c>
+      <c r="Q13">
+        <v>2.869458524247778</v>
+      </c>
+      <c r="R13">
+        <v>25.82512671823</v>
+      </c>
+      <c r="S13">
+        <v>0.03186198244941423</v>
+      </c>
+      <c r="T13">
+        <v>0.03186198244941423</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
+      <c r="C14" t="s">
         <v>25</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>1.06334303897159</v>
-      </c>
-      <c r="H13">
-        <v>1.06334303897159</v>
-      </c>
-      <c r="I13">
-        <v>0.4241589173744493</v>
-      </c>
-      <c r="J13">
-        <v>0.4241589173744493</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>1.96592144764875</v>
-      </c>
-      <c r="N13">
-        <v>1.96592144764875</v>
-      </c>
-      <c r="O13">
-        <v>0.08233880430972219</v>
-      </c>
-      <c r="P13">
-        <v>0.08233880430972219</v>
-      </c>
-      <c r="Q13">
-        <v>2.09044888652225</v>
-      </c>
-      <c r="R13">
-        <v>2.09044888652225</v>
-      </c>
-      <c r="S13">
-        <v>0.03492473809391841</v>
-      </c>
-      <c r="T13">
-        <v>0.03492473809391841</v>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>0.144104</v>
+      </c>
+      <c r="H14">
+        <v>0.432312</v>
+      </c>
+      <c r="I14">
+        <v>0.04261292901295109</v>
+      </c>
+      <c r="J14">
+        <v>0.0426129290129511</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>1.331285</v>
+      </c>
+      <c r="N14">
+        <v>3.993855</v>
+      </c>
+      <c r="O14">
+        <v>0.0499894697877283</v>
+      </c>
+      <c r="P14">
+        <v>0.04998946978772829</v>
+      </c>
+      <c r="Q14">
+        <v>0.19184349364</v>
+      </c>
+      <c r="R14">
+        <v>1.72659144276</v>
+      </c>
+      <c r="S14">
+        <v>0.00213019772745953</v>
+      </c>
+      <c r="T14">
+        <v>0.00213019772745953</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.144104</v>
+      </c>
+      <c r="H15">
+        <v>0.432312</v>
+      </c>
+      <c r="I15">
+        <v>0.04261292901295109</v>
+      </c>
+      <c r="J15">
+        <v>0.0426129290129511</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>10.37764133333333</v>
+      </c>
+      <c r="N15">
+        <v>31.132924</v>
+      </c>
+      <c r="O15">
+        <v>0.3896782341125657</v>
+      </c>
+      <c r="P15">
+        <v>0.3896782341125657</v>
+      </c>
+      <c r="Q15">
+        <v>1.495459626698667</v>
+      </c>
+      <c r="R15">
+        <v>13.459136640288</v>
+      </c>
+      <c r="S15">
+        <v>0.0166053309281309</v>
+      </c>
+      <c r="T15">
+        <v>0.0166053309281309</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.144104</v>
+      </c>
+      <c r="H16">
+        <v>0.432312</v>
+      </c>
+      <c r="I16">
+        <v>0.04261292901295109</v>
+      </c>
+      <c r="J16">
+        <v>0.0426129290129511</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>12.55252066666667</v>
+      </c>
+      <c r="N16">
+        <v>37.657562</v>
+      </c>
+      <c r="O16">
+        <v>0.4713444924461467</v>
+      </c>
+      <c r="P16">
+        <v>0.4713444924461467</v>
+      </c>
+      <c r="Q16">
+        <v>1.808868438149333</v>
+      </c>
+      <c r="R16">
+        <v>16.279815943344</v>
+      </c>
+      <c r="S16">
+        <v>0.02008536939725311</v>
+      </c>
+      <c r="T16">
+        <v>0.02008536939725311</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>0.144104</v>
+      </c>
+      <c r="H17">
+        <v>0.432312</v>
+      </c>
+      <c r="I17">
+        <v>0.04261292901295109</v>
+      </c>
+      <c r="J17">
+        <v>0.0426129290129511</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>2.369861666666667</v>
+      </c>
+      <c r="N17">
+        <v>7.109585</v>
+      </c>
+      <c r="O17">
+        <v>0.08898780365355935</v>
+      </c>
+      <c r="P17">
+        <v>0.08898780365355935</v>
+      </c>
+      <c r="Q17">
+        <v>0.3415065456133333</v>
+      </c>
+      <c r="R17">
+        <v>3.07355891052</v>
+      </c>
+      <c r="S17">
+        <v>0.003792030960107554</v>
+      </c>
+      <c r="T17">
+        <v>0.003792030960107555</v>
       </c>
     </row>
   </sheetData>
